--- a/doc/IO List.xlsx
+++ b/doc/IO List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\LAB357\Project Rearch\Paper data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\LAB357\Project Rearch\LAB357_AGV-Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDADAD5E-C9C7-4741-9A4A-8A98C4859BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47B8E3-543C-43E5-892A-B747F4401F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A02DB8F-8E80-4B05-9A6F-623D06228DAA}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9A02DB8F-8E80-4B05-9A6F-623D06228DAA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Input</t>
   </si>
@@ -215,18 +215,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A 電機制動(X1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>驅動器使能(X0)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B 電機控制(X2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A 電機方向(X3)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -239,18 +231,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A 電機速度輸入(V1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 電機速度輸入(V2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~5V 模擬電壓輸入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AGV-BLD-2S CN4-1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -268,6 +248,31 @@
   </si>
   <si>
     <t>AGV-BLD-2S CN4-6</t>
+  </si>
+  <si>
+    <t>B 電機使能(X2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 電機使能(X1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 電機速度輸入(V1)</t>
+  </si>
+  <si>
+    <t>B 電機速度輸入(V2)</t>
+  </si>
+  <si>
+    <t>0~5V 模擬電壓輸入</t>
+  </si>
+  <si>
+    <t>左馬達Encoder-A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左馬達Encoder-B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -866,6 +871,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,21 +967,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,45 +976,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,39 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1011,7 +1016,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>828398</xdr:colOff>
+      <xdr:colOff>834113</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>112644</xdr:rowOff>
     </xdr:to>
@@ -1048,16 +1053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>278295</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>132523</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1686338</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1087315</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:colOff>757915</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1080,8 +1085,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7832034" y="2829340"/>
-          <a:ext cx="2598064" cy="1431234"/>
+          <a:off x="8353838" y="2658718"/>
+          <a:ext cx="2796846" cy="1446143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,6 +1135,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1029529</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>187270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4" descr="روح معنوية أسباب الباندا arduino mega pin interrupt -  thumuaphelieutienphat.net">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E3783-01B3-4667-8827-F6E21C78744A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10171044"/>
+          <a:ext cx="11424203" cy="7437782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1436,74 +1502,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3898A9-F613-472D-99B6-4272D8DAF877}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="32.125" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.8" thickBot="1"/>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="66" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.8" thickBot="1">
-      <c r="A3" s="46" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A3" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="46" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="42" t="s">
         <v>58</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -1514,215 +1580,215 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A5" s="63" t="s">
+      <c r="L4" s="60"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="30"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="49" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="72" t="s">
-        <v>69</v>
-      </c>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="30"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="54" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="65"/>
+        <v>63</v>
+      </c>
+      <c r="G8" s="59"/>
       <c r="H8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="51" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="72"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A9" s="63" t="s">
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A9" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="30"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="54" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="59"/>
       <c r="H9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="73" t="s">
-        <v>69</v>
-      </c>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="65"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="47" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.8" thickBot="1">
-      <c r="A11" s="63" t="s">
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="55" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="K11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="66" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="4"/>
@@ -1732,17 +1798,17 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="75"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A13" s="63" t="s">
+      <c r="L12" s="66"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="57" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="4"/>
@@ -1752,17 +1818,21 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="K13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="61" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="57" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="4"/>
@@ -1772,17 +1842,17 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="49" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2"/>
@@ -1792,17 +1862,17 @@
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="51" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="75"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="57" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2"/>
@@ -1812,17 +1882,17 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="51" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="75"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.8" thickBot="1">
-      <c r="A17" s="63" t="s">
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A17" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="2"/>
@@ -1832,17 +1902,17 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="52" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="73"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="2"/>
@@ -1852,17 +1922,17 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="47" t="s">
         <v>48</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="74"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.8" thickBot="1">
-      <c r="A19" s="64" t="s">
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="17"/>
@@ -1872,14 +1942,14 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="51" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="76"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3"/>
@@ -1890,16 +1960,16 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="51" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="76"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.8" thickBot="1">
+      <c r="L20" s="67"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -1908,14 +1978,14 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="48" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3"/>
@@ -1926,16 +1996,16 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="49" t="s">
         <v>53</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="78"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.8" thickBot="1">
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
@@ -1944,14 +2014,14 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="52" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="79"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3"/>

--- a/doc/IO List.xlsx
+++ b/doc/IO List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\LAB357\Project Rearch\LAB357_AGV-Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47B8E3-543C-43E5-892A-B747F4401F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F168CCB-E112-4A13-9232-A45DCC505299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9A02DB8F-8E80-4B05-9A6F-623D06228DAA}"/>
   </bookViews>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
